--- a/Kế-hoạch-game-caro-2-người-chơi.xlsx
+++ b/Kế-hoạch-game-caro-2-người-chơi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuong be de\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuong be de\Desktop\Cấu trúc dữ liệu và giải thuật\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8BAF58-5E81-4D96-99F3-30A2D570505E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BDE4D2-AA93-4E47-AE3D-2B51813DDB3D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{9D2AB4CB-00F6-461F-83A4-BBA81D90BC74}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
   <si>
     <t>Stt</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Ngày kết thúc dự kiến</t>
   </si>
   <si>
-    <t>Bảng phân công kế hoạch</t>
-  </si>
-  <si>
     <t>Thiết kế bố cục giao diện và anchor</t>
   </si>
   <si>
@@ -151,6 +148,18 @@
   </si>
   <si>
     <t>4 tháng 11</t>
+  </si>
+  <si>
+    <t>Bảng phân công kế hoạch game caro 2 người chơi</t>
+  </si>
+  <si>
+    <t>Ngày bắt đầu thực tế</t>
+  </si>
+  <si>
+    <t>Ngày kết thúc thực tế</t>
+  </si>
+  <si>
+    <t>Làm báo cáo trên word</t>
   </si>
 </sst>
 </file>
@@ -265,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -295,12 +304,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -310,6 +313,13 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE84ED23-3FAC-42AA-9587-87217D3F8ED7}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:G15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,29 +649,35 @@
     <col min="5" max="5" width="20.28515625" customWidth="1"/>
     <col min="6" max="6" width="21.140625" customWidth="1"/>
     <col min="7" max="7" width="44.7109375" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -669,10 +685,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>2</v>
@@ -681,274 +697,306 @@
         <v>3</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="18"/>
+        <v>4</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="16"/>
       <c r="E4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>35</v>
-      </c>
       <c r="G4" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+    </row>
+    <row r="5" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18" t="s">
-        <v>32</v>
+        <v>6</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16" t="s">
+        <v>31</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>35</v>
-      </c>
       <c r="G5" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+    </row>
+    <row r="6" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="18"/>
+        <v>7</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="16"/>
       <c r="E6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>35</v>
-      </c>
       <c r="G6" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+    </row>
+    <row r="7" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18" t="s">
-        <v>32</v>
+        <v>8</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16" t="s">
+        <v>31</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+    </row>
+    <row r="8" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18" t="s">
-        <v>32</v>
+        <v>9</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16" t="s">
+        <v>31</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="18"/>
+        <v>10</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="16"/>
       <c r="E9" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="18"/>
+        <v>11</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="16"/>
       <c r="E10" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+    </row>
+    <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18" t="s">
-        <v>32</v>
+        <v>12</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16" t="s">
+        <v>31</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="18"/>
+        <v>13</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="16"/>
       <c r="E12" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16" t="s">
+        <v>31</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
+        <v>12</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="C15" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
-        <v>12</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="21"/>
+      <c r="G15" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
+      <c r="A17" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -957,7 +1005,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A1:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Kế-hoạch-game-caro-2-người-chơi.xlsx
+++ b/Kế-hoạch-game-caro-2-người-chơi.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuong be de\Desktop\Cấu trúc dữ liệu và giải thuật\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thang\Desktop\game-caro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BDE4D2-AA93-4E47-AE3D-2B51813DDB3D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{9D2AB4CB-00F6-461F-83A4-BBA81D90BC74}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
   <si>
     <t>Stt</t>
   </si>
@@ -160,12 +159,18 @@
   </si>
   <si>
     <t>Làm báo cáo trên word</t>
+  </si>
+  <si>
+    <t>6 tháng10</t>
+  </si>
+  <si>
+    <t>6 tháng 10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -633,11 +638,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE84ED23-3FAC-42AA-9587-87217D3F8ED7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,8 +731,12 @@
       <c r="G4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
+      <c r="H4" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">

--- a/Kế-hoạch-game-caro-2-người-chơi.xlsx
+++ b/Kế-hoạch-game-caro-2-người-chơi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuong be de\Desktop\Cấu trúc dữ liệu và giải thuật\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuong be de\Desktop\GitHub\game-caro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BDE4D2-AA93-4E47-AE3D-2B51813DDB3D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC31FB6-E843-4706-9357-78CD90761D67}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{9D2AB4CB-00F6-461F-83A4-BBA81D90BC74}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{9D2AB4CB-00F6-461F-83A4-BBA81D90BC74}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="46">
   <si>
     <t>Stt</t>
   </si>
@@ -84,9 +84,6 @@
     <t>Tạo mô hình chung hiển thị cho bàn cờ và anchor</t>
   </si>
   <si>
-    <t>Tạo ra bàn cờ cơ bàn, xây dựng thuật toán tạo bàn cơ khoảng 16*16</t>
-  </si>
-  <si>
     <t>Tạo ra, cho phép người dùng tự đặt tên cho mình nếu muốn</t>
   </si>
   <si>
@@ -160,6 +157,12 @@
   </si>
   <si>
     <t>Làm báo cáo trên word</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tạo ra bàn cờ cơ bàn, xây dựng thuật toán tạo bàn cờ 19x23  </t>
+  </si>
+  <si>
+    <t>08 tháng 10</t>
   </si>
 </sst>
 </file>
@@ -636,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE84ED23-3FAC-42AA-9587-87217D3F8ED7}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,7 +658,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -700,10 +703,10 @@
         <v>17</v>
       </c>
       <c r="H3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -714,14 +717,14 @@
         <v>4</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>33</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>34</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>18</v>
@@ -738,19 +741,23 @@
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>34</v>
-      </c>
       <c r="G5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
+        <v>44</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -760,17 +767,17 @@
         <v>7</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>34</v>
-      </c>
       <c r="G6" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H6" s="20"/>
       <c r="I6" s="20"/>
@@ -784,16 +791,16 @@
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H7" s="20"/>
       <c r="I7" s="20"/>
@@ -807,16 +814,16 @@
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H8" s="20"/>
       <c r="I8" s="20"/>
@@ -829,17 +836,17 @@
         <v>10</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
@@ -852,17 +859,17 @@
         <v>11</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
@@ -876,16 +883,16 @@
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
@@ -898,17 +905,17 @@
         <v>13</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
@@ -922,16 +929,16 @@
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H13" s="20"/>
       <c r="I13" s="20"/>
@@ -944,19 +951,19 @@
         <v>15</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>40</v>
-      </c>
       <c r="G14" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
@@ -966,29 +973,29 @@
         <v>12</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="18" t="s">
-        <v>40</v>
-      </c>
       <c r="G15" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
@@ -996,7 +1003,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>

--- a/Kế-hoạch-game-caro-2-người-chơi.xlsx
+++ b/Kế-hoạch-game-caro-2-người-chơi.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuong be de\Desktop\GitHub\game-caro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thang\Desktop\game-caro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465378AC-AC12-49C0-85F6-3F5841F84256}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{9D2AB4CB-00F6-461F-83A4-BBA81D90BC74}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
   <si>
     <t>Stt</t>
   </si>
@@ -169,12 +168,21 @@
   </si>
   <si>
     <t>05 tháng 10</t>
+  </si>
+  <si>
+    <t>16 tháng 10</t>
+  </si>
+  <si>
+    <t>17 tháng 10</t>
+  </si>
+  <si>
+    <t>19 tháng 10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -642,11 +650,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE84ED23-3FAC-42AA-9587-87217D3F8ED7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,8 +797,12 @@
       <c r="G6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
+      <c r="H6" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -799,10 +811,10 @@
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16" t="s">
-        <v>30</v>
-      </c>
+      <c r="C7" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="16"/>
       <c r="E7" s="7" t="s">
         <v>34</v>
       </c>
@@ -812,8 +824,12 @@
       <c r="G7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
+      <c r="H7" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">

--- a/Kế-hoạch-game-caro-2-người-chơi.xlsx
+++ b/Kế-hoạch-game-caro-2-người-chơi.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thang\Desktop\game-caro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuong be de\Desktop\GitHub\game-caro\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300CFFC0-3AD7-4982-8DB2-2031F6F2C77B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
   <si>
     <t>Stt</t>
   </si>
@@ -177,12 +178,15 @@
   </si>
   <si>
     <t>19 tháng 10</t>
+  </si>
+  <si>
+    <t>20 tháng 10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -650,11 +654,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,8 +855,12 @@
       <c r="G8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
+      <c r="H8" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">

--- a/Kế-hoạch-game-caro-2-người-chơi.xlsx
+++ b/Kế-hoạch-game-caro-2-người-chơi.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuong be de\Desktop\GitHub\game-caro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thang\Desktop\game-caro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300CFFC0-3AD7-4982-8DB2-2031F6F2C77B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="53">
   <si>
     <t>Stt</t>
   </si>
@@ -181,12 +180,15 @@
   </si>
   <si>
     <t>20 tháng 10</t>
+  </si>
+  <si>
+    <t>22 tháng 10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -654,11 +656,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,8 +884,12 @@
       <c r="G9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
+      <c r="H9" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3">

--- a/Kế-hoạch-game-caro-2-người-chơi.xlsx
+++ b/Kế-hoạch-game-caro-2-người-chơi.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thang\Desktop\game-caro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuong be de\Desktop\GitHub\game-caro\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EBA66E-FC94-480F-AA87-0DEAD7C23728}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
   <si>
     <t>Stt</t>
   </si>
@@ -183,12 +184,15 @@
   </si>
   <si>
     <t>22 tháng 10</t>
+  </si>
+  <si>
+    <t>23 tháng 10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -656,11 +660,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,8 +938,12 @@
       <c r="G11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
+      <c r="H11" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3">

--- a/Kế-hoạch-game-caro-2-người-chơi.xlsx
+++ b/Kế-hoạch-game-caro-2-người-chơi.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuong be de\Desktop\GitHub\game-caro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thang\Desktop\game-caro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EBA66E-FC94-480F-AA87-0DEAD7C23728}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
   <si>
     <t>Stt</t>
   </si>
@@ -66,12 +65,6 @@
     <t>Chức năng đi lại - Undo</t>
   </si>
   <si>
-    <t>Tạo kết nối mạng LAN cho 2 người chơi</t>
-  </si>
-  <si>
-    <t>Truyền quân cờ qua mạng LAN</t>
-  </si>
-  <si>
     <t xml:space="preserve">Demo hoàn chỉnh </t>
   </si>
   <si>
@@ -97,12 +90,6 @@
   </si>
   <si>
     <t>Ứng dụng stack, undo khi người chơi click undo, không được undo sau khi đối phương đi</t>
-  </si>
-  <si>
-    <t>2 người chơi trên 2 máy khác nhau</t>
-  </si>
-  <si>
-    <t>Hiển thị nước chơi trên 2 máy</t>
   </si>
   <si>
     <t>Hoàn chỉnh và chỉnh sửa những thiếu xót</t>
@@ -192,8 +179,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,12 +224,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -261,7 +242,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -297,11 +278,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -325,14 +368,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -345,6 +385,24 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -660,11 +718,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,28 +739,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="A1" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -715,7 +773,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>2</v>
@@ -724,13 +782,13 @@
         <v>3</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -740,24 +798,24 @@
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="16"/>
+      <c r="C4" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="15"/>
       <c r="E4" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>46</v>
+        <v>16</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -767,24 +825,24 @@
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16" t="s">
-        <v>30</v>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
@@ -794,24 +852,24 @@
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="16"/>
+      <c r="C6" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="15"/>
       <c r="E6" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>48</v>
+        <v>17</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -821,24 +879,24 @@
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="F7" s="11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>50</v>
+        <v>18</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -848,24 +906,24 @@
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16" t="s">
+      <c r="C8" s="15"/>
+      <c r="D8" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="F8" s="11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>51</v>
+        <v>19</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -875,24 +933,24 @@
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="F9" s="11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>52</v>
+        <v>20</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -902,21 +960,21 @@
       <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="16"/>
+      <c r="C10" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="15"/>
       <c r="E10" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
+        <v>23</v>
+      </c>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
     </row>
     <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -925,142 +983,119 @@
       <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16" t="s">
-        <v>30</v>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>53</v>
+        <v>21</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="7" t="s">
+      <c r="C12" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
+        <v>12</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="24"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="25"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="27"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>11</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="17">
-        <v>12</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A14:I15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Kế-hoạch-game-caro-2-người-chơi.xlsx
+++ b/Kế-hoạch-game-caro-2-người-chơi.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thang\Desktop\game-caro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuong be de\Desktop\GitHub\game-caro\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5281744C-10A1-4B4A-B816-D9C1CE79727F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -179,7 +180,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -718,11 +719,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,7 +1006,7 @@
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>13</v>
@@ -1030,7 +1031,7 @@
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>27</v>

--- a/Kế-hoạch-game-caro-2-người-chơi.xlsx
+++ b/Kế-hoạch-game-caro-2-người-chơi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuong be de\Desktop\GitHub\game-caro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuong be de\Desktop\game-caro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5281744C-10A1-4B4A-B816-D9C1CE79727F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2CB1DD-D8F0-4A2F-B4BB-BBD15DBDE7D6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="51">
   <si>
     <t>Stt</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Tạo mô hình chung hiển thị cho bàn cờ và anchor</t>
   </si>
   <si>
-    <t>Tạo ra, cho phép người dùng tự đặt tên cho mình nếu muốn</t>
-  </si>
-  <si>
     <t>Cho phép 2 người chơi luôn phiên nhau chọn nước đi, không chọn đè lên nước đã được đi</t>
   </si>
   <si>
@@ -175,6 +172,12 @@
   </si>
   <si>
     <t>23 tháng 10</t>
+  </si>
+  <si>
+    <t>1 tháng 11</t>
+  </si>
+  <si>
+    <t>Tạo ra với image mark riêng cho tường người</t>
   </si>
 </sst>
 </file>
@@ -723,7 +726,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,7 +744,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -786,10 +789,10 @@
         <v>15</v>
       </c>
       <c r="H3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -800,23 +803,23 @@
         <v>4</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>28</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>29</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -828,25 +831,25 @@
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>29</v>
-      </c>
       <c r="G5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="19" t="s">
-        <v>41</v>
-      </c>
       <c r="I5" s="19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -854,23 +857,23 @@
         <v>7</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>29</v>
-      </c>
       <c r="G6" s="8" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -881,23 +884,23 @@
         <v>8</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H7" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="19" t="s">
         <v>45</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -909,22 +912,22 @@
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -935,23 +938,23 @@
         <v>10</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -962,17 +965,17 @@
         <v>11</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
@@ -986,22 +989,22 @@
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H11" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="19" t="s">
         <v>48</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1012,21 +1015,23 @@
         <v>13</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>35</v>
-      </c>
       <c r="G12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="19"/>
+        <v>21</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>49</v>
+      </c>
       <c r="I12" s="19"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1034,22 +1039,22 @@
         <v>10</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="17" t="s">
-        <v>35</v>
-      </c>
       <c r="G13" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
@@ -1078,7 +1083,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
@@ -1086,7 +1091,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>

--- a/Kế-hoạch-game-caro-2-người-chơi.xlsx
+++ b/Kế-hoạch-game-caro-2-người-chơi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuong be de\Desktop\game-caro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2CB1DD-D8F0-4A2F-B4BB-BBD15DBDE7D6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9391835C-31EF-4294-81CA-43D6B222D0DD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
   <si>
     <t>Stt</t>
   </si>
@@ -174,10 +174,13 @@
     <t>23 tháng 10</t>
   </si>
   <si>
-    <t>1 tháng 11</t>
-  </si>
-  <si>
     <t>Tạo ra với image mark riêng cho tường người</t>
+  </si>
+  <si>
+    <t>1 tháng 12</t>
+  </si>
+  <si>
+    <t>6 tháng 12</t>
   </si>
 </sst>
 </file>
@@ -725,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,7 +870,7 @@
         <v>28</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H6" s="19" t="s">
         <v>33</v>
@@ -1030,9 +1033,11 @@
         <v>21</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="I12" s="19"/>
+        <v>50</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="16">

--- a/Kế-hoạch-game-caro-2-người-chơi.xlsx
+++ b/Kế-hoạch-game-caro-2-người-chơi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuong be de\Desktop\game-caro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9391835C-31EF-4294-81CA-43D6B222D0DD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A5A74C-D5E3-401B-88D6-038442F56575}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,9 +60,6 @@
     <t>Tạo menu và hotkey</t>
   </si>
   <si>
-    <t>Hiển thị nước vừa đánh của đối thủ</t>
-  </si>
-  <si>
     <t>Chức năng đi lại - Undo</t>
   </si>
   <si>
@@ -87,15 +84,9 @@
     <t>New game hoặc quit</t>
   </si>
   <si>
-    <t>Ứng dụng stack, undo khi người chơi click undo, không được undo sau khi đối phương đi</t>
-  </si>
-  <si>
     <t>Hoàn chỉnh và chỉnh sửa những thiếu xót</t>
   </si>
   <si>
-    <t>Cho phép xem nước đi vừa đánh của đối thủ</t>
-  </si>
-  <si>
     <t>• Phần code chương trình sẽ gồm 1 file cs program và những class riêng biệt.</t>
   </si>
   <si>
@@ -181,6 +172,15 @@
   </si>
   <si>
     <t>6 tháng 12</t>
+  </si>
+  <si>
+    <t>Cho phép chọn kích thước bàn cờ</t>
+  </si>
+  <si>
+    <t>Hiển thị ra 1 form riêng</t>
+  </si>
+  <si>
+    <t>Ứng dụng stack, undo. Tạo lại cấu trúc dữ liệu Stack phù hợp với môn cấu trúc dữ liệu</t>
   </si>
 </sst>
 </file>
@@ -728,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,7 +747,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -780,7 +780,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>2</v>
@@ -789,13 +789,13 @@
         <v>3</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -806,26 +806,26 @@
         <v>4</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -834,22 +834,22 @@
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>28</v>
-      </c>
       <c r="G5" s="12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -860,23 +860,23 @@
         <v>7</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -887,23 +887,23 @@
         <v>8</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -915,22 +915,22 @@
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -941,23 +941,23 @@
         <v>10</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -965,20 +965,20 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15" t="s">
+        <v>22</v>
+      </c>
       <c r="E10" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
@@ -988,26 +988,26 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1015,28 +1015,28 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1044,22 +1044,22 @@
         <v>10</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
@@ -1088,7 +1088,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
@@ -1096,7 +1096,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
